--- a/public/excel_files/generated-employee.xlsx
+++ b/public/excel_files/generated-employee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>First Name</t>
   </si>
@@ -26,6 +26,39 @@
     <t>Last Name</t>
   </si>
   <si>
+    <t>Full Address</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Spouse Name</t>
+  </si>
+  <si>
+    <t>Payroll Period Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Date Hired</t>
+  </si>
+  <si>
+    <t>Basic Pay</t>
+  </si>
+  <si>
     <t>Tin</t>
   </si>
   <si>
@@ -35,6 +68,66 @@
     <t>Pagibig</t>
   </si>
   <si>
+    <t>Dependents</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Withholding Tax Type</t>
+  </si>
+  <si>
+    <t>Expanded Withholding Tax</t>
+  </si>
+  <si>
+    <t>Entitled Night Differential</t>
+  </si>
+  <si>
+    <t>Nightly Rate</t>
+  </si>
+  <si>
+    <t>Entitled Overtime Pay</t>
+  </si>
+  <si>
+    <t>Overtime Pay Rate</t>
+  </si>
+  <si>
+    <t>Timesheet Required</t>
+  </si>
+  <si>
+    <t>Deduct Sss</t>
+  </si>
+  <si>
+    <t>Fixed Sss Amount</t>
+  </si>
+  <si>
+    <t>Deduct Hdmf</t>
+  </si>
+  <si>
+    <t>Fixed Hdmf Amount</t>
+  </si>
+  <si>
+    <t>Deduct Philhealth</t>
+  </si>
+  <si>
+    <t>Fix Philhealth Amount</t>
+  </si>
+  <si>
+    <t>Time Shift Start</t>
+  </si>
+  <si>
+    <t>Time Shift End</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
     <t>Mark Jospeh</t>
   </si>
   <si>
@@ -44,9 +137,60 @@
     <t>Penaranda</t>
   </si>
   <si>
+    <t>#8 Robina Roaddasdzdczxc</t>
+  </si>
+  <si>
+    <t>1992-09-03</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Freelancers</t>
+  </si>
+  <si>
+    <t>IT Department</t>
+  </si>
+  <si>
+    <t>Super Admin</t>
+  </si>
+  <si>
+    <t>Capas Branch</t>
+  </si>
+  <si>
+    <t>07/07/1992</t>
+  </si>
+  <si>
+    <t>25,000.00</t>
+  </si>
+  <si>
     <t>none</t>
   </si>
   <si>
+    <t>+63121212</t>
+  </si>
+  <si>
+    <t>eloisa.corpuz</t>
+  </si>
+  <si>
+    <t>mark@sourcescript.ph</t>
+  </si>
+  <si>
+    <t>Expanded</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>01:30 pm</t>
+  </si>
+  <si>
+    <t>Lemonade Company</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eloisa </t>
   </si>
   <si>
@@ -56,6 +200,33 @@
     <t>Corpuz</t>
   </si>
   <si>
+    <t>#8 Robina Road</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Regulars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main IT Department </t>
+  </si>
+  <si>
+    <t>Makati Branch</t>
+  </si>
+  <si>
+    <t>eloisa@sourcescript.ph</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>07:00 am</t>
+  </si>
+  <si>
+    <t>05:15 pm</t>
+  </si>
+  <si>
     <t>Jen</t>
   </si>
   <si>
@@ -63,6 +234,777 @@
   </si>
   <si>
     <t>Dela Cruz</t>
+  </si>
+  <si>
+    <t>Matatalaib Tarlac</t>
+  </si>
+  <si>
+    <t>1992-01-10</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>HR Admin</t>
+  </si>
+  <si>
+    <t>employee@lemon.com</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>04:45 pm</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>OCAMPO</t>
+  </si>
+  <si>
+    <t>MANIAGA</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL, STO. TOMAS, BATANGAS</t>
+  </si>
+  <si>
+    <t>1965-10-01</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>MARRIED</t>
+  </si>
+  <si>
+    <t>JOCELYN MANIAGA</t>
+  </si>
+  <si>
+    <t>REGULAR EMPLOYEE</t>
+  </si>
+  <si>
+    <t>TREASURY</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BALAYAN</t>
+  </si>
+  <si>
+    <t>2008-10-01</t>
+  </si>
+  <si>
+    <t>10,500.00</t>
+  </si>
+  <si>
+    <t>04-0823575-2</t>
+  </si>
+  <si>
+    <t>1210-9610-8711</t>
+  </si>
+  <si>
+    <t>08:00 am</t>
+  </si>
+  <si>
+    <t>GODOFREDO</t>
+  </si>
+  <si>
+    <t>PIGAR</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>SAN JUAN, STO. TOMAS, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-02</t>
+  </si>
+  <si>
+    <t>JUVY BELEN VILLANUEVA</t>
+  </si>
+  <si>
+    <t>CALATAGAN</t>
+  </si>
+  <si>
+    <t>2008-10-02</t>
+  </si>
+  <si>
+    <t>04-0818221-6</t>
+  </si>
+  <si>
+    <t>1210-9665-5180</t>
+  </si>
+  <si>
+    <t>MYRNA</t>
+  </si>
+  <si>
+    <t>BABAO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>CALICANTO, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-03</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>NESTOR GARCIA</t>
+  </si>
+  <si>
+    <t>BAUAN</t>
+  </si>
+  <si>
+    <t>2008-10-03</t>
+  </si>
+  <si>
+    <t>04-0453404-6</t>
+  </si>
+  <si>
+    <t>1210-9674-632</t>
+  </si>
+  <si>
+    <t>RANDY MEL</t>
+  </si>
+  <si>
+    <t>MALDIA</t>
+  </si>
+  <si>
+    <t>PACIA</t>
+  </si>
+  <si>
+    <t>SAN FERNANDO, STO. TOMAS, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-04</t>
+  </si>
+  <si>
+    <t>MELVA G. PACIA</t>
+  </si>
+  <si>
+    <t>LEMERY 2</t>
+  </si>
+  <si>
+    <t>2008-10-04</t>
+  </si>
+  <si>
+    <t>04-3200603-8</t>
+  </si>
+  <si>
+    <t>1470-0102-3261</t>
+  </si>
+  <si>
+    <t>RAMIL</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>MALIKSI</t>
+  </si>
+  <si>
+    <t>1965-10-05</t>
+  </si>
+  <si>
+    <t>ELVIRA L. MALIKSI</t>
+  </si>
+  <si>
+    <t>STO TOMAS</t>
+  </si>
+  <si>
+    <t>2008-10-05</t>
+  </si>
+  <si>
+    <t>04-2318407-9</t>
+  </si>
+  <si>
+    <t>1210-3655-1508</t>
+  </si>
+  <si>
+    <t>ACHILLES CONSTANCIO</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>MAYO</t>
+  </si>
+  <si>
+    <t>BRGY. 9, LIPA CITY, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-06</t>
+  </si>
+  <si>
+    <t>ELIZABETH M. MAYO</t>
+  </si>
+  <si>
+    <t>LIPA</t>
+  </si>
+  <si>
+    <t>2008-10-06</t>
+  </si>
+  <si>
+    <t>04-2527489-3</t>
+  </si>
+  <si>
+    <t>1210-9592-2367</t>
+  </si>
+  <si>
+    <t>RONEL</t>
+  </si>
+  <si>
+    <t>NAVAREZ</t>
+  </si>
+  <si>
+    <t>REHIZ</t>
+  </si>
+  <si>
+    <t>BUCAL, LEMERY BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-07</t>
+  </si>
+  <si>
+    <t>JULIET E. REHIZ</t>
+  </si>
+  <si>
+    <t>TAAL</t>
+  </si>
+  <si>
+    <t>2008-10-07</t>
+  </si>
+  <si>
+    <t>04-0570154-8</t>
+  </si>
+  <si>
+    <t>1210-9621-2609</t>
+  </si>
+  <si>
+    <t>RONALDO</t>
+  </si>
+  <si>
+    <t>CALDO</t>
+  </si>
+  <si>
+    <t>PUCYUTAN</t>
+  </si>
+  <si>
+    <t>534 SAN FELIX, STO. TOMAS, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-08</t>
+  </si>
+  <si>
+    <t>JOCELYN M. PUCYUTAN</t>
+  </si>
+  <si>
+    <t>2008-10-08</t>
+  </si>
+  <si>
+    <t>33-3264362-4</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>GULFAN</t>
+  </si>
+  <si>
+    <t>TAAL, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-09</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>TALISAY</t>
+  </si>
+  <si>
+    <t>2008-10-09</t>
+  </si>
+  <si>
+    <t>9,900.00</t>
+  </si>
+  <si>
+    <t>04-1362224-0</t>
+  </si>
+  <si>
+    <t>1210-9625-9091</t>
+  </si>
+  <si>
+    <t>JUDITH</t>
+  </si>
+  <si>
+    <t>TAMAYO</t>
+  </si>
+  <si>
+    <t>VERGARA</t>
+  </si>
+  <si>
+    <t>CORAL NA MUNTI, AGONCILLO, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-10</t>
+  </si>
+  <si>
+    <t>QUINTIN P. VERGARA</t>
+  </si>
+  <si>
+    <t>SAN NICOLAS</t>
+  </si>
+  <si>
+    <t>2008-10-10</t>
+  </si>
+  <si>
+    <t>04-2313923-1</t>
+  </si>
+  <si>
+    <t>1210-9599-8890</t>
+  </si>
+  <si>
+    <t>JOELITO</t>
+  </si>
+  <si>
+    <t>ILAGAN</t>
+  </si>
+  <si>
+    <t>HUELGAS</t>
+  </si>
+  <si>
+    <t>STO. TOMAS, BATANGAS</t>
+  </si>
+  <si>
+    <t>1965-10-11</t>
+  </si>
+  <si>
+    <t>MANETES HUELGAS</t>
+  </si>
+  <si>
+    <t>NASUGBU</t>
+  </si>
+  <si>
+    <t>2008-10-11</t>
+  </si>
+  <si>
+    <t>9,000.00</t>
+  </si>
+  <si>
+    <t>04-3275079-5</t>
+  </si>
+  <si>
+    <t>1210-9606-6748</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>POB. BALETE, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-12</t>
+  </si>
+  <si>
+    <t>ESTRELLA R. SALAZA</t>
+  </si>
+  <si>
+    <t>BALETE</t>
+  </si>
+  <si>
+    <t>2008-10-12</t>
+  </si>
+  <si>
+    <t>03-3813009-5</t>
+  </si>
+  <si>
+    <t>1210-9592-2066</t>
+  </si>
+  <si>
+    <t>DONALD</t>
+  </si>
+  <si>
+    <t>TIONGSON</t>
+  </si>
+  <si>
+    <t>MALABANAN</t>
+  </si>
+  <si>
+    <t>1965-10-13</t>
+  </si>
+  <si>
+    <t>ROSEMARIE MALABANAN</t>
+  </si>
+  <si>
+    <t>2008-10-13</t>
+  </si>
+  <si>
+    <t>04-3097998-9</t>
+  </si>
+  <si>
+    <t>1210-9615-2865</t>
+  </si>
+  <si>
+    <t>JULIETA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>MANTO</t>
+  </si>
+  <si>
+    <t>STA. ANA, STO. TOMAS, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-14</t>
+  </si>
+  <si>
+    <t>JAUNITO MANTO</t>
+  </si>
+  <si>
+    <t>SAN AGUSTIN</t>
+  </si>
+  <si>
+    <t>2008-10-14</t>
+  </si>
+  <si>
+    <t>04-3515238-7</t>
+  </si>
+  <si>
+    <t>1210-9590-7909</t>
+  </si>
+  <si>
+    <t>CORNELIO</t>
+  </si>
+  <si>
+    <t>LAYLO</t>
+  </si>
+  <si>
+    <t>OAY</t>
+  </si>
+  <si>
+    <t>1965-10-15</t>
+  </si>
+  <si>
+    <t>STILITA OAY</t>
+  </si>
+  <si>
+    <t>LAUREL</t>
+  </si>
+  <si>
+    <t>2008-10-15</t>
+  </si>
+  <si>
+    <t>04-2483652-0</t>
+  </si>
+  <si>
+    <t>1210-9600-9586</t>
+  </si>
+  <si>
+    <t>LITO</t>
+  </si>
+  <si>
+    <t>TOLENTINO</t>
+  </si>
+  <si>
+    <t>1965-10-16</t>
+  </si>
+  <si>
+    <t>CATTLEYA S. MALIKSI</t>
+  </si>
+  <si>
+    <t>MATAAS NA KAHOY</t>
+  </si>
+  <si>
+    <t>2008-10-16</t>
+  </si>
+  <si>
+    <t>04-1200082-1</t>
+  </si>
+  <si>
+    <t>1210-3651-4797</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>CARPIO</t>
+  </si>
+  <si>
+    <t>MAGHIRANG</t>
+  </si>
+  <si>
+    <t>SAN PABLO, STO. TOMAS, BATANGAS CITY</t>
+  </si>
+  <si>
+    <t>1965-10-17</t>
+  </si>
+  <si>
+    <t>SAN LUIS</t>
+  </si>
+  <si>
+    <t>2008-10-17</t>
+  </si>
+  <si>
+    <t>04-1985366-0</t>
+  </si>
+  <si>
+    <t>1210-9665-6309</t>
+  </si>
+  <si>
+    <t>ARNEL</t>
+  </si>
+  <si>
+    <t>UNICO</t>
+  </si>
+  <si>
+    <t>TRAPICHE, TANAUAN CITY BATANGAS</t>
+  </si>
+  <si>
+    <t>1965-10-18</t>
+  </si>
+  <si>
+    <t>CRISTINA JOY E. UNICO</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>2008-10-18</t>
+  </si>
+  <si>
+    <t>33-2952908-1</t>
+  </si>
+  <si>
+    <t>1211-0613-0536</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>MALILAY</t>
+  </si>
+  <si>
+    <t>1965-10-19</t>
+  </si>
+  <si>
+    <t>GIANELLE C. TOLENTINO</t>
+  </si>
+  <si>
+    <t>SAN JOSE</t>
+  </si>
+  <si>
+    <t>2008-10-19</t>
+  </si>
+  <si>
+    <t>04-3201680-8</t>
+  </si>
+  <si>
+    <t>1211-0162-3453</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>MALICSI</t>
+  </si>
+  <si>
+    <t>OSTONAL JR.</t>
+  </si>
+  <si>
+    <t>1965-10-20</t>
+  </si>
+  <si>
+    <t>JOSIE P. OSTONAL</t>
+  </si>
+  <si>
+    <t>MABINI</t>
+  </si>
+  <si>
+    <t>2008-10-20</t>
+  </si>
+  <si>
+    <t>04-0930569-4</t>
+  </si>
+  <si>
+    <t>PAULINO JR.</t>
+  </si>
+  <si>
+    <t>SANCEBUCHE</t>
+  </si>
+  <si>
+    <t>STA. CLARA, STO. TOMAS, BATANGAS</t>
+  </si>
+  <si>
+    <t>1965-10-21</t>
+  </si>
+  <si>
+    <t>STA TERESITA</t>
+  </si>
+  <si>
+    <t>2008-10-21</t>
+  </si>
+  <si>
+    <t>ANACLITO</t>
+  </si>
+  <si>
+    <t>RECIO</t>
+  </si>
+  <si>
+    <t>MASAJO</t>
+  </si>
+  <si>
+    <t>1965-10-22</t>
+  </si>
+  <si>
+    <t>JANET S. MASAJO</t>
+  </si>
+  <si>
+    <t>LEMERY 1</t>
+  </si>
+  <si>
+    <t>2008-10-22</t>
+  </si>
+  <si>
+    <t>LEONILO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>MALOLOS</t>
+  </si>
+  <si>
+    <t>1965-10-23</t>
+  </si>
+  <si>
+    <t>MARIANE M. MALOLOS</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>2008-10-23</t>
+  </si>
+  <si>
+    <t>04-3174742-4</t>
+  </si>
+  <si>
+    <t>1211-0157-2098</t>
+  </si>
+  <si>
+    <t>ROMEO</t>
+  </si>
+  <si>
+    <t>MOJICA</t>
+  </si>
+  <si>
+    <t>LAPITAN</t>
+  </si>
+  <si>
+    <t>SAN VICENTE, STO. TOMAS, BATANGAS</t>
+  </si>
+  <si>
+    <t>1965-10-24</t>
+  </si>
+  <si>
+    <t>IMELDA LAPITAN</t>
+  </si>
+  <si>
+    <t>2008-10-24</t>
+  </si>
+  <si>
+    <t>04-0496903-5</t>
+  </si>
+  <si>
+    <t>ERWIN</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>FEDERICO</t>
+  </si>
+  <si>
+    <t>1965-10-25</t>
+  </si>
+  <si>
+    <t>ROSALYN P. FEDERICO</t>
+  </si>
+  <si>
+    <t>IBAAN</t>
+  </si>
+  <si>
+    <t>2008-10-25</t>
+  </si>
+  <si>
+    <t>04-1053946-2</t>
+  </si>
+  <si>
+    <t>JEFFREY</t>
+  </si>
+  <si>
+    <t>MABILANGAN</t>
+  </si>
+  <si>
+    <t>1965-10-26</t>
+  </si>
+  <si>
+    <t>PADRE GARCIA</t>
+  </si>
+  <si>
+    <t>2008-10-26</t>
+  </si>
+  <si>
+    <t>04-3191234-3</t>
+  </si>
+  <si>
+    <t>1210-3892-8644</t>
+  </si>
+  <si>
+    <t>RYAN</t>
+  </si>
+  <si>
+    <t>RASING</t>
+  </si>
+  <si>
+    <t>1965-10-27</t>
+  </si>
+  <si>
+    <t>AGONCILLO</t>
+  </si>
+  <si>
+    <t>2008-10-27</t>
+  </si>
+  <si>
+    <t>LEA</t>
+  </si>
+  <si>
+    <t>CELIS</t>
+  </si>
+  <si>
+    <t>1965-10-28</t>
+  </si>
+  <si>
+    <t>CUENCA</t>
+  </si>
+  <si>
+    <t>2008-10-28</t>
   </si>
 </sst>
 </file>
@@ -416,7 +1358,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +1366,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:37" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,65 +1385,3095 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2">
         <v>123</v>
       </c>
-      <c r="F2">
+      <c r="Q2">
         <v>13123</v>
       </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2">
+        <v>0.3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2">
+        <v>0.3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3">
         <v>1212111</v>
       </c>
-      <c r="F3">
+      <c r="Q3">
         <v>121211</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>9066009622</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3">
+        <v>25</v>
+      </c>
+      <c r="X3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3"/>
+      <c r="AB3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3"/>
+      <c r="AE3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3"/>
+      <c r="AG3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3"/>
+      <c r="AI3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4">
         <v>123</v>
       </c>
-      <c r="F4">
+      <c r="Q4">
         <v>13123</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>9066009622</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4"/>
+      <c r="AB4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4"/>
+      <c r="AE4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4"/>
+      <c r="AG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4"/>
+      <c r="AI4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>9195142835</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5"/>
+      <c r="AB5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5"/>
+      <c r="AE5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF5"/>
+      <c r="AG5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH5"/>
+      <c r="AI5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>9308516121</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6"/>
+      <c r="AB6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6"/>
+      <c r="AE6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6"/>
+      <c r="AG6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH6"/>
+      <c r="AI6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>9094781782</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7"/>
+      <c r="AB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7"/>
+      <c r="AE7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7"/>
+      <c r="AG7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH7"/>
+      <c r="AI7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>9082424266</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8"/>
+      <c r="AB8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8"/>
+      <c r="AE8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8"/>
+      <c r="AG8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH8"/>
+      <c r="AI8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>9287714089</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA9"/>
+      <c r="AB9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9"/>
+      <c r="AE9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF9"/>
+      <c r="AG9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH9"/>
+      <c r="AI9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>146</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10"/>
+      <c r="AB10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF10"/>
+      <c r="AG10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH10"/>
+      <c r="AI10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>156</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>9279839926</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11"/>
+      <c r="AB11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF11"/>
+      <c r="AG11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH11"/>
+      <c r="AI11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s">
+        <v>163</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>9085173977</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA12"/>
+      <c r="AB12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD12"/>
+      <c r="AE12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF12"/>
+      <c r="AG12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH12"/>
+      <c r="AI12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13" t="s">
+        <v>173</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>175</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>9214898208</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13"/>
+      <c r="AB13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF13"/>
+      <c r="AG13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH13"/>
+      <c r="AI13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>182</v>
+      </c>
+      <c r="M14" t="s">
+        <v>183</v>
+      </c>
+      <c r="N14" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>185</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>9182279368</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA14"/>
+      <c r="AB14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14"/>
+      <c r="AE14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF14"/>
+      <c r="AG14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH14"/>
+      <c r="AI14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s">
+        <v>192</v>
+      </c>
+      <c r="M15" t="s">
+        <v>193</v>
+      </c>
+      <c r="N15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>9494534032</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA15"/>
+      <c r="AB15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15"/>
+      <c r="AE15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF15"/>
+      <c r="AG15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH15"/>
+      <c r="AI15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>205</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>9208763981</v>
+      </c>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16"/>
+      <c r="AB16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD16"/>
+      <c r="AE16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF16"/>
+      <c r="AG16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH16"/>
+      <c r="AI16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>213</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA17"/>
+      <c r="AB17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD17"/>
+      <c r="AE17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF17"/>
+      <c r="AG17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH17"/>
+      <c r="AI17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" t="s">
+        <v>221</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>223</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>9392247644</v>
+      </c>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18"/>
+      <c r="AB18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD18"/>
+      <c r="AE18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF18"/>
+      <c r="AG18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH18"/>
+      <c r="AI18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" t="s">
+        <v>229</v>
+      </c>
+      <c r="M19" t="s">
+        <v>230</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>232</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>9164385379</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA19"/>
+      <c r="AB19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD19"/>
+      <c r="AE19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF19"/>
+      <c r="AG19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH19"/>
+      <c r="AI19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>236</v>
+      </c>
+      <c r="I20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" t="s">
+        <v>237</v>
+      </c>
+      <c r="M20" t="s">
+        <v>238</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>240</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>9083354267</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20"/>
+      <c r="AB20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20"/>
+      <c r="AE20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF20"/>
+      <c r="AG20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH20"/>
+      <c r="AI20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s">
+        <v>246</v>
+      </c>
+      <c r="M21" t="s">
+        <v>247</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>249</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>9998236725</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA21"/>
+      <c r="AB21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD21"/>
+      <c r="AE21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF21"/>
+      <c r="AG21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH21"/>
+      <c r="AI21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" t="s">
+        <v>255</v>
+      </c>
+      <c r="M22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>258</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>9282029907</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA22"/>
+      <c r="AB22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD22"/>
+      <c r="AE22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF22"/>
+      <c r="AG22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH22"/>
+      <c r="AI22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" t="s">
+        <v>263</v>
+      </c>
+      <c r="M23" t="s">
+        <v>264</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>266</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>9476426318</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA23"/>
+      <c r="AB23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD23"/>
+      <c r="AE23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF23"/>
+      <c r="AG23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH23"/>
+      <c r="AI23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>271</v>
+      </c>
+      <c r="I24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" t="s">
+        <v>272</v>
+      </c>
+      <c r="M24" t="s">
+        <v>273</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q24"/>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>9127202910</v>
+      </c>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA24"/>
+      <c r="AB24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD24"/>
+      <c r="AE24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF24"/>
+      <c r="AG24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH24"/>
+      <c r="AI24" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
+        <v>279</v>
+      </c>
+      <c r="M25" t="s">
+        <v>280</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25"/>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>9494170685</v>
+      </c>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA25"/>
+      <c r="AB25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD25"/>
+      <c r="AE25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF25"/>
+      <c r="AG25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH25"/>
+      <c r="AI25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" t="s">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>9202654234</v>
+      </c>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA26"/>
+      <c r="AB26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD26"/>
+      <c r="AE26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF26"/>
+      <c r="AG26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH26"/>
+      <c r="AI26" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s">
+        <v>292</v>
+      </c>
+      <c r="I27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" t="s">
+        <v>293</v>
+      </c>
+      <c r="M27" t="s">
+        <v>294</v>
+      </c>
+      <c r="N27" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>296</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>9196453886</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA27"/>
+      <c r="AB27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD27"/>
+      <c r="AE27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF27"/>
+      <c r="AG27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH27"/>
+      <c r="AI27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>302</v>
+      </c>
+      <c r="I28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" t="s">
+        <v>124</v>
+      </c>
+      <c r="M28" t="s">
+        <v>303</v>
+      </c>
+      <c r="N28" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q28"/>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>9089378822</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA28"/>
+      <c r="AB28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD28"/>
+      <c r="AE28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF28"/>
+      <c r="AG28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH28"/>
+      <c r="AI28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s">
+        <v>309</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" t="s">
+        <v>310</v>
+      </c>
+      <c r="M29" t="s">
+        <v>311</v>
+      </c>
+      <c r="N29" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q29"/>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA29"/>
+      <c r="AB29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD29"/>
+      <c r="AE29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF29"/>
+      <c r="AG29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH29"/>
+      <c r="AI29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" t="s">
+        <v>316</v>
+      </c>
+      <c r="M30" t="s">
+        <v>317</v>
+      </c>
+      <c r="N30" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>319</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>9158464573</v>
+      </c>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA30"/>
+      <c r="AB30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD30"/>
+      <c r="AE30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF30"/>
+      <c r="AG30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH30"/>
+      <c r="AI30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" t="s">
+        <v>323</v>
+      </c>
+      <c r="M31" t="s">
+        <v>324</v>
+      </c>
+      <c r="N31" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>9079792459</v>
+      </c>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA31"/>
+      <c r="AB31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD31"/>
+      <c r="AE31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF31"/>
+      <c r="AG31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH31"/>
+      <c r="AI31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>327</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" t="s">
+        <v>328</v>
+      </c>
+      <c r="M32" t="s">
+        <v>329</v>
+      </c>
+      <c r="N32" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>9995597011</v>
+      </c>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA32"/>
+      <c r="AB32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD32"/>
+      <c r="AE32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF32"/>
+      <c r="AG32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH32"/>
+      <c r="AI32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
